--- a/dev_gerenciador/dev_reserva/Cronograma_de_projeto.xlsx
+++ b/dev_gerenciador/dev_reserva/Cronograma_de_projeto.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\arbarbosa1979\Exercicio\dev_gerenciador\dev_reserva\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9270"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9276"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Nível de Risco</t>
   </si>
@@ -102,12 +102,6 @@
   </si>
   <si>
     <t>Equipe</t>
-  </si>
-  <si>
-    <t>Em andamento</t>
-  </si>
-  <si>
-    <t>Não foi iniciado</t>
   </si>
   <si>
     <t>Antonio Renato Barbosa</t>
@@ -261,10 +255,6 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
@@ -319,6 +309,10 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,413 +595,413 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="41.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="29.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="29.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="41.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>45047</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="9">
         <v>45051</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <f t="shared" ref="H3:H10" si="0">IF(F3=0,0,G3-F3)</f>
         <v>4</v>
       </c>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <v>45051</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="14">
         <v>45056</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <v>45056</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="14">
         <v>45059</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+      <c r="I5" s="7"/>
+    </row>
+    <row r="6" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="C6" s="11"/>
+      <c r="D6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <v>45059</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="14">
         <v>45063</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="I6" s="7"/>
+    </row>
+    <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="6"/>
+      <c r="D7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>45063</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="14">
         <v>45066</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>45066</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <v>45070</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="16" t="s">
+      <c r="C9" s="7"/>
+      <c r="D9" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>45070</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>45073</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="16" t="s">
+      <c r="C10" s="7"/>
+      <c r="D10" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>45073</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>45077</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="7"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="7"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
